--- a/data/pca/factorExposure/factorExposure_2018-03-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.009085249565188353</v>
+        <v>0.01404139766953354</v>
       </c>
       <c r="C2">
-        <v>0.02252419191482636</v>
+        <v>-0.02724745570899719</v>
       </c>
       <c r="D2">
-        <v>-0.02002276919164621</v>
+        <v>0.02378134469923711</v>
       </c>
       <c r="E2">
-        <v>0.006485188020546667</v>
+        <v>-0.02159281866149589</v>
       </c>
       <c r="F2">
-        <v>-0.07750845753651762</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.003723347316837013</v>
+      </c>
+      <c r="G2">
+        <v>-0.01232143462552314</v>
+      </c>
+      <c r="H2">
+        <v>-0.04580508872197427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0939767034759849</v>
+        <v>0.0572319429911344</v>
       </c>
       <c r="C3">
-        <v>0.03698797826292045</v>
+        <v>-0.07374057789674338</v>
       </c>
       <c r="D3">
-        <v>-0.003185069551012959</v>
+        <v>0.005157537360233076</v>
       </c>
       <c r="E3">
-        <v>0.03966990110316564</v>
+        <v>-0.04283328069535407</v>
       </c>
       <c r="F3">
-        <v>-0.3102507435421917</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.07200794507594993</v>
+      </c>
+      <c r="G3">
+        <v>-0.04987441631296449</v>
+      </c>
+      <c r="H3">
+        <v>-0.1348084092958426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04399011755732656</v>
+        <v>0.03480389826811152</v>
       </c>
       <c r="C4">
-        <v>0.003904854696947911</v>
+        <v>-0.06153982038240255</v>
       </c>
       <c r="D4">
-        <v>-0.03285150732642327</v>
+        <v>0.01727692022797886</v>
       </c>
       <c r="E4">
-        <v>-0.03901211400348378</v>
+        <v>0.02510824867688444</v>
       </c>
       <c r="F4">
-        <v>-0.06003459342038537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.001671096038305439</v>
+      </c>
+      <c r="G4">
+        <v>-0.04387903218158029</v>
+      </c>
+      <c r="H4">
+        <v>-0.05615219142082108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03628969995950431</v>
+        <v>0.0187812017736919</v>
       </c>
       <c r="C6">
-        <v>0.01110939080009371</v>
+        <v>-0.06404306353609754</v>
       </c>
       <c r="D6">
-        <v>-0.03916737934810473</v>
+        <v>0.01243501585574684</v>
       </c>
       <c r="E6">
-        <v>-0.03091012308695625</v>
+        <v>0.01264792487765155</v>
       </c>
       <c r="F6">
-        <v>-0.02165735092592258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01232863250891067</v>
+      </c>
+      <c r="G6">
+        <v>-0.02710159680310464</v>
+      </c>
+      <c r="H6">
+        <v>-0.05026124529189924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03700943168986589</v>
+        <v>0.006438087107536948</v>
       </c>
       <c r="C7">
-        <v>-0.03670376190099828</v>
+        <v>-0.03482161532018535</v>
       </c>
       <c r="D7">
-        <v>-0.01925849247446687</v>
+        <v>0.01066394213487042</v>
       </c>
       <c r="E7">
-        <v>-0.01120493355847175</v>
+        <v>0.03537177740689745</v>
       </c>
       <c r="F7">
-        <v>-0.02829800782520906</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.03277569810880706</v>
+      </c>
+      <c r="G7">
+        <v>-0.004093216895627633</v>
+      </c>
+      <c r="H7">
+        <v>-0.03142267710066384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01284921540861215</v>
+        <v>-0.003206160103024232</v>
       </c>
       <c r="C8">
-        <v>-0.006349408071250329</v>
+        <v>-0.00927264673113656</v>
       </c>
       <c r="D8">
-        <v>-0.0341705307292809</v>
+        <v>0.001592016890806836</v>
       </c>
       <c r="E8">
-        <v>-0.0299860459259249</v>
+        <v>0.003835337745705691</v>
       </c>
       <c r="F8">
-        <v>-0.05298742873070725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02080861490700965</v>
+      </c>
+      <c r="G8">
+        <v>-0.02527961666154439</v>
+      </c>
+      <c r="H8">
+        <v>-0.02790938058101325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03277210617289469</v>
+        <v>0.01979323722730538</v>
       </c>
       <c r="C9">
-        <v>0.001011732613826553</v>
+        <v>-0.0491566015382734</v>
       </c>
       <c r="D9">
-        <v>-0.02930966193219151</v>
+        <v>0.01185501823254163</v>
       </c>
       <c r="E9">
-        <v>-0.01557361710504673</v>
+        <v>0.005413644012846679</v>
       </c>
       <c r="F9">
-        <v>-0.07557375518196351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01414496842362823</v>
+      </c>
+      <c r="G9">
+        <v>-0.02700698190770269</v>
+      </c>
+      <c r="H9">
+        <v>-0.05518528059311236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04652637242972454</v>
+        <v>0.1376794813898836</v>
       </c>
       <c r="C10">
-        <v>0.009451047607561431</v>
+        <v>0.1397900721831511</v>
       </c>
       <c r="D10">
-        <v>0.1396492508171522</v>
+        <v>-0.02467749951424556</v>
       </c>
       <c r="E10">
-        <v>0.06437932186271163</v>
+        <v>-0.02440103937553459</v>
       </c>
       <c r="F10">
-        <v>-0.0517255562008856</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04486041361445884</v>
+      </c>
+      <c r="G10">
+        <v>0.008748161930143633</v>
+      </c>
+      <c r="H10">
+        <v>0.004322183003200182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02867134444454081</v>
+        <v>0.01366333034173049</v>
       </c>
       <c r="C11">
-        <v>0.01639038705648387</v>
+        <v>-0.0509081360879356</v>
       </c>
       <c r="D11">
-        <v>-0.03768814119784953</v>
+        <v>-0.00103993878190434</v>
       </c>
       <c r="E11">
-        <v>-0.02561062903209866</v>
+        <v>0.003057306583709347</v>
       </c>
       <c r="F11">
-        <v>-0.02187915445186723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.006185155060343402</v>
+      </c>
+      <c r="G11">
+        <v>-0.01398440452239669</v>
+      </c>
+      <c r="H11">
+        <v>-0.04800051409982142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04074244804095977</v>
+        <v>0.0190407130184702</v>
       </c>
       <c r="C12">
-        <v>0.01500668294542331</v>
+        <v>-0.04872258611508383</v>
       </c>
       <c r="D12">
-        <v>-0.03295628054836604</v>
+        <v>0.002513142240115258</v>
       </c>
       <c r="E12">
-        <v>-0.03249398591559455</v>
+        <v>0.01664777675613295</v>
       </c>
       <c r="F12">
-        <v>0.005627590455158675</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.004477724805238142</v>
+      </c>
+      <c r="G12">
+        <v>-0.008099734955651396</v>
+      </c>
+      <c r="H12">
+        <v>-0.01974654546830787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008859186381272113</v>
+        <v>0.0143715149934593</v>
       </c>
       <c r="C13">
-        <v>0.01822483072144611</v>
+        <v>-0.02567370966554814</v>
       </c>
       <c r="D13">
-        <v>-0.007834003834706196</v>
+        <v>0.02033398721280946</v>
       </c>
       <c r="E13">
-        <v>-0.00975950516732867</v>
+        <v>-0.01902857059602662</v>
       </c>
       <c r="F13">
-        <v>-0.06714006855007734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.006012270711472037</v>
+      </c>
+      <c r="G13">
+        <v>-0.03842126916451474</v>
+      </c>
+      <c r="H13">
+        <v>-0.06741692563062864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02502799802257103</v>
+        <v>0.0073184352735577</v>
       </c>
       <c r="C14">
-        <v>-0.006349706581077264</v>
+        <v>-0.02296256854475237</v>
       </c>
       <c r="D14">
-        <v>-0.01212984514444736</v>
+        <v>0.005982626033887827</v>
       </c>
       <c r="E14">
-        <v>-0.01785977834537987</v>
+        <v>0.01098843802444123</v>
       </c>
       <c r="F14">
-        <v>-0.04263809427264906</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01959820258085677</v>
+      </c>
+      <c r="G14">
+        <v>-0.02130986753761543</v>
+      </c>
+      <c r="H14">
+        <v>-0.01952397436109302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02958093817918334</v>
+        <v>0.01574941757766167</v>
       </c>
       <c r="C16">
-        <v>0.01480376089129237</v>
+        <v>-0.04439834639443883</v>
       </c>
       <c r="D16">
-        <v>-0.04244088376172223</v>
+        <v>-0.001589262118019157</v>
       </c>
       <c r="E16">
-        <v>-0.02617294651492037</v>
+        <v>0.00571473641079412</v>
       </c>
       <c r="F16">
-        <v>-0.02694207565980497</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.001804958533922406</v>
+      </c>
+      <c r="G16">
+        <v>-0.0159302846273966</v>
+      </c>
+      <c r="H16">
+        <v>-0.03665659235409411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03600668753505588</v>
+        <v>0.01590671685515818</v>
       </c>
       <c r="C19">
-        <v>0.009852180776172163</v>
+        <v>-0.04224261286683633</v>
       </c>
       <c r="D19">
-        <v>-0.03270403207218035</v>
+        <v>0.01046933542418466</v>
       </c>
       <c r="E19">
-        <v>-0.04143895201670095</v>
+        <v>0.005166967154585393</v>
       </c>
       <c r="F19">
-        <v>-0.07029450351636372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.01996044434678457</v>
+      </c>
+      <c r="G19">
+        <v>-0.0397836920219117</v>
+      </c>
+      <c r="H19">
+        <v>-0.05842498554669341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002601338430647412</v>
+        <v>0.002877080298563729</v>
       </c>
       <c r="C20">
-        <v>-0.009383682346643892</v>
+        <v>-0.02258681610936852</v>
       </c>
       <c r="D20">
-        <v>-0.0003102843058420498</v>
+        <v>0.01009369262073223</v>
       </c>
       <c r="E20">
-        <v>-0.01441955828569254</v>
+        <v>-0.004755238460994138</v>
       </c>
       <c r="F20">
-        <v>-0.04673749809895337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02159999615769409</v>
+      </c>
+      <c r="G20">
+        <v>-0.03182912286589627</v>
+      </c>
+      <c r="H20">
+        <v>-0.03275438186196541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02444015351432274</v>
+        <v>0.006885974943147063</v>
       </c>
       <c r="C21">
-        <v>-0.01019500231483039</v>
+        <v>-0.02127492195469052</v>
       </c>
       <c r="D21">
-        <v>-0.02392904723634325</v>
+        <v>0.0125449074093823</v>
       </c>
       <c r="E21">
-        <v>-0.01487940384495444</v>
+        <v>0.003567608083482729</v>
       </c>
       <c r="F21">
-        <v>-0.02714040146442831</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02701139417829247</v>
+      </c>
+      <c r="G21">
+        <v>-0.01716984088119386</v>
+      </c>
+      <c r="H21">
+        <v>-0.03684963568310002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02700411512030855</v>
+        <v>0.009381050986840072</v>
       </c>
       <c r="C24">
-        <v>0.01455506955250689</v>
+        <v>-0.04267192558944655</v>
       </c>
       <c r="D24">
-        <v>-0.02225412031968622</v>
+        <v>0.003990997178907467</v>
       </c>
       <c r="E24">
-        <v>-0.02128789165766583</v>
+        <v>0.006991296992981046</v>
       </c>
       <c r="F24">
-        <v>-0.02530551969623905</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.007476850051833113</v>
+      </c>
+      <c r="G24">
+        <v>-0.008108492926688015</v>
+      </c>
+      <c r="H24">
+        <v>-0.04048037563261347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0310472313259029</v>
+        <v>0.02383023187745539</v>
       </c>
       <c r="C25">
-        <v>0.01254480755376717</v>
+        <v>-0.05085445329908207</v>
       </c>
       <c r="D25">
-        <v>-0.03277272126826451</v>
+        <v>0.00685490689029388</v>
       </c>
       <c r="E25">
-        <v>-0.01960947570587768</v>
+        <v>0.0144426083889712</v>
       </c>
       <c r="F25">
-        <v>-0.02877467098044235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.006928765081638713</v>
+      </c>
+      <c r="G25">
+        <v>-0.01696756874156987</v>
+      </c>
+      <c r="H25">
+        <v>-0.03986824180399878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0141681414482804</v>
+        <v>0.006381172052551932</v>
       </c>
       <c r="C26">
-        <v>0.002304804914825536</v>
+        <v>-0.006953466458574349</v>
       </c>
       <c r="D26">
-        <v>-0.01580368962981181</v>
+        <v>0.02222782066296103</v>
       </c>
       <c r="E26">
-        <v>0.008810685960967873</v>
+        <v>0.0007803371037302802</v>
       </c>
       <c r="F26">
-        <v>-0.05164424944934718</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01258487747786959</v>
+      </c>
+      <c r="G26">
+        <v>-0.007260751161919902</v>
+      </c>
+      <c r="H26">
+        <v>-0.01954051831263452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.02775166114662557</v>
+        <v>0.008152461335926918</v>
       </c>
       <c r="C27">
-        <v>0.00359273823307232</v>
+        <v>-0.008494555535351183</v>
       </c>
       <c r="D27">
-        <v>0.0008539560925715992</v>
+        <v>-0.001511257787918925</v>
       </c>
       <c r="E27">
-        <v>-0.02547542143343558</v>
+        <v>0.005711462683746589</v>
       </c>
       <c r="F27">
-        <v>-0.005393011519135664</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.01001041373459131</v>
+      </c>
+      <c r="G27">
+        <v>-0.006283820052607662</v>
+      </c>
+      <c r="H27">
+        <v>0.008793344544015501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08901036223161558</v>
+        <v>0.1909085395033697</v>
       </c>
       <c r="C28">
-        <v>0.01683951844373189</v>
+        <v>0.1783038621038165</v>
       </c>
       <c r="D28">
-        <v>0.2064982735376294</v>
+        <v>-0.01992386991643583</v>
       </c>
       <c r="E28">
-        <v>0.104193038768616</v>
+        <v>-0.005487965383961175</v>
       </c>
       <c r="F28">
-        <v>-0.04794369748751396</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04530216254488219</v>
+      </c>
+      <c r="G28">
+        <v>0.01707156017801639</v>
+      </c>
+      <c r="H28">
+        <v>0.004561202551791174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02748241622093363</v>
+        <v>0.01212683236426485</v>
       </c>
       <c r="C29">
-        <v>-0.002009901353135167</v>
+        <v>-0.02041107527501714</v>
       </c>
       <c r="D29">
-        <v>-0.01120784550265442</v>
+        <v>0.004863650210831724</v>
       </c>
       <c r="E29">
-        <v>-0.02002330263994871</v>
+        <v>0.007584697056872867</v>
       </c>
       <c r="F29">
-        <v>-0.0411152921726235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02085483296665259</v>
+      </c>
+      <c r="G29">
+        <v>-0.02105499344234722</v>
+      </c>
+      <c r="H29">
+        <v>-0.01166074589274727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03604224548722192</v>
+        <v>0.0219873951448691</v>
       </c>
       <c r="C30">
-        <v>0.05870486757893228</v>
+        <v>-0.08635663345574623</v>
       </c>
       <c r="D30">
-        <v>-0.05777425803053582</v>
+        <v>0.02240488404376617</v>
       </c>
       <c r="E30">
-        <v>-0.02826299200300903</v>
+        <v>-0.02608501875520599</v>
       </c>
       <c r="F30">
-        <v>-0.07448244317794241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.01654949427977275</v>
+      </c>
+      <c r="G30">
+        <v>-0.04679505951351215</v>
+      </c>
+      <c r="H30">
+        <v>-0.07523616844432278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04931339166893393</v>
+        <v>0.03517984374285239</v>
       </c>
       <c r="C31">
-        <v>0.01906925582222488</v>
+        <v>-0.03455805880266979</v>
       </c>
       <c r="D31">
-        <v>-0.02059458724924271</v>
+        <v>-0.0003779301762126374</v>
       </c>
       <c r="E31">
-        <v>-0.02660862530328766</v>
+        <v>0.005149928538924293</v>
       </c>
       <c r="F31">
-        <v>-0.03503146963164231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.0123936295799529</v>
+      </c>
+      <c r="G31">
+        <v>-0.008018520328807394</v>
+      </c>
+      <c r="H31">
+        <v>-0.004612906212308635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02236954997585296</v>
+        <v>-0.001355979363391069</v>
       </c>
       <c r="C32">
-        <v>-0.02096924005029996</v>
+        <v>-0.01290667488457482</v>
       </c>
       <c r="D32">
-        <v>-0.04660375516767125</v>
+        <v>-0.007888707163191816</v>
       </c>
       <c r="E32">
-        <v>-0.04204823491471205</v>
+        <v>0.0249418896605373</v>
       </c>
       <c r="F32">
-        <v>-0.03700189496781407</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.02641129421313926</v>
+      </c>
+      <c r="G32">
+        <v>-0.04574877285810493</v>
+      </c>
+      <c r="H32">
+        <v>-0.04383836332031962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03282453413403882</v>
+        <v>0.01737234939650591</v>
       </c>
       <c r="C33">
-        <v>0.03426061322794603</v>
+        <v>-0.04908121785658218</v>
       </c>
       <c r="D33">
-        <v>-0.04729921808885183</v>
+        <v>0.0104036418397881</v>
       </c>
       <c r="E33">
-        <v>-0.01141529023201925</v>
+        <v>-0.0242509139889915</v>
       </c>
       <c r="F33">
-        <v>-0.05293096144635357</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01063693765983576</v>
+      </c>
+      <c r="G33">
+        <v>-0.01169477675603653</v>
+      </c>
+      <c r="H33">
+        <v>-0.05208781961099884</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03258972573858639</v>
+        <v>0.02451745406745602</v>
       </c>
       <c r="C34">
-        <v>0.006921862270301107</v>
+        <v>-0.05278381030721415</v>
       </c>
       <c r="D34">
-        <v>-0.03903180228866823</v>
+        <v>-0.009561509659458605</v>
       </c>
       <c r="E34">
-        <v>-0.03302970060487466</v>
+        <v>0.02427081541072087</v>
       </c>
       <c r="F34">
-        <v>-0.02126119121647599</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.008508763235856849</v>
+      </c>
+      <c r="G34">
+        <v>-0.01189963434944326</v>
+      </c>
+      <c r="H34">
+        <v>-0.038459936296642</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01979054173720219</v>
+        <v>0.01294942046154514</v>
       </c>
       <c r="C36">
-        <v>-0.003498913388078594</v>
+        <v>-0.007396182991542045</v>
       </c>
       <c r="D36">
-        <v>-0.002620941502965993</v>
+        <v>0.00893955498146822</v>
       </c>
       <c r="E36">
-        <v>-0.0132511227179197</v>
+        <v>0.003593426921916535</v>
       </c>
       <c r="F36">
-        <v>-0.03052322594893786</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01498774604709359</v>
+      </c>
+      <c r="G36">
+        <v>-0.008228554114505409</v>
+      </c>
+      <c r="H36">
+        <v>-0.01271650475917836</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01230349153742226</v>
+        <v>0.02662083864563582</v>
       </c>
       <c r="C38">
-        <v>0.007142577110439471</v>
+        <v>-0.02146933985782534</v>
       </c>
       <c r="D38">
-        <v>-0.002173784434873564</v>
+        <v>-0.01121658606541732</v>
       </c>
       <c r="E38">
-        <v>0.02210964653991426</v>
+        <v>-0.0008311213066019876</v>
       </c>
       <c r="F38">
-        <v>-0.04301062963758766</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.001804493454563543</v>
+      </c>
+      <c r="G38">
+        <v>-0.01197888659287262</v>
+      </c>
+      <c r="H38">
+        <v>-0.0358960005977977</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02654632018882338</v>
+        <v>0.002035839812363979</v>
       </c>
       <c r="C39">
-        <v>0.01407729611699992</v>
+        <v>-0.08828609873657806</v>
       </c>
       <c r="D39">
-        <v>-0.05885510282253382</v>
+        <v>0.009088805546455067</v>
       </c>
       <c r="E39">
-        <v>-0.0271188288714098</v>
+        <v>4.969858181105306e-05</v>
       </c>
       <c r="F39">
-        <v>-0.04567996933946564</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01102244216419821</v>
+      </c>
+      <c r="G39">
+        <v>-0.02077789320306946</v>
+      </c>
+      <c r="H39">
+        <v>-0.0779956086641246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01745235185817722</v>
+        <v>0.01956706175396538</v>
       </c>
       <c r="C40">
-        <v>0.04043046369548476</v>
+        <v>-0.02971621669060764</v>
       </c>
       <c r="D40">
-        <v>-0.01828616948268512</v>
+        <v>0.007780687857346201</v>
       </c>
       <c r="E40">
-        <v>-0.03126543597029357</v>
+        <v>-0.009087559713594203</v>
       </c>
       <c r="F40">
-        <v>-0.02529153433006052</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02397685967024065</v>
+      </c>
+      <c r="G40">
+        <v>-0.0244055881151313</v>
+      </c>
+      <c r="H40">
+        <v>-0.04323598557623781</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01022348352898977</v>
+        <v>0.01203597696947598</v>
       </c>
       <c r="C41">
-        <v>0.00116798500544917</v>
+        <v>0.007111510983760613</v>
       </c>
       <c r="D41">
-        <v>-0.001629692378621672</v>
+        <v>0.002055928131101812</v>
       </c>
       <c r="E41">
-        <v>0.01210221803662014</v>
+        <v>0.0007098017563792952</v>
       </c>
       <c r="F41">
-        <v>-0.006605031700019695</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.00737346863843132</v>
+      </c>
+      <c r="G41">
+        <v>0.007763394890289254</v>
+      </c>
+      <c r="H41">
+        <v>0.003736382636585893</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2349238841346581</v>
+        <v>0.07779786786022959</v>
       </c>
       <c r="C42">
-        <v>0.213741223762388</v>
+        <v>-0.2083197252789495</v>
       </c>
       <c r="D42">
-        <v>-0.3808162016231745</v>
+        <v>0.1220326469352693</v>
       </c>
       <c r="E42">
-        <v>0.8008125456371384</v>
+        <v>-0.3351525095120931</v>
       </c>
       <c r="F42">
-        <v>0.2652295097437237</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1267874342622415</v>
+      </c>
+      <c r="G42">
+        <v>0.8870082228880763</v>
+      </c>
+      <c r="H42">
+        <v>-0.04638879316677418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01215018295914121</v>
+        <v>0.0130416684772738</v>
       </c>
       <c r="C43">
-        <v>0.004101855187921586</v>
+        <v>0.004675461999683859</v>
       </c>
       <c r="D43">
-        <v>-0.006016528925277363</v>
+        <v>0.002714579381106272</v>
       </c>
       <c r="E43">
-        <v>-0.0004588671593594617</v>
+        <v>0.001832908779648204</v>
       </c>
       <c r="F43">
-        <v>-0.02580088689296071</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.004444195714599706</v>
+      </c>
+      <c r="G43">
+        <v>0.006425387143147498</v>
+      </c>
+      <c r="H43">
+        <v>-0.005711244163549478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02263776731632135</v>
+        <v>0.006396802152631132</v>
       </c>
       <c r="C44">
-        <v>-0.01174247796368945</v>
+        <v>-0.03948066663079737</v>
       </c>
       <c r="D44">
-        <v>-0.02725129301510675</v>
+        <v>0.003822330235198544</v>
       </c>
       <c r="E44">
-        <v>0.004797978520973288</v>
+        <v>0.002361169222809608</v>
       </c>
       <c r="F44">
-        <v>-0.08579396049897459</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02927904635912612</v>
+      </c>
+      <c r="G44">
+        <v>-0.009477879658836019</v>
+      </c>
+      <c r="H44">
+        <v>-0.06335793871550535</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02002431831937644</v>
+        <v>0.003576509940459378</v>
       </c>
       <c r="C46">
-        <v>0.004952158440343086</v>
+        <v>-0.01433980768993942</v>
       </c>
       <c r="D46">
-        <v>-0.04053623788963475</v>
+        <v>0.0101208370855008</v>
       </c>
       <c r="E46">
-        <v>-0.02729911440260473</v>
+        <v>0.001815600692926974</v>
       </c>
       <c r="F46">
-        <v>-0.05609741225146372</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01338061399291675</v>
+      </c>
+      <c r="G46">
+        <v>-0.01352893723624652</v>
+      </c>
+      <c r="H46">
+        <v>-0.01510184318091801</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07837626880490482</v>
+        <v>0.05425227427321601</v>
       </c>
       <c r="C47">
-        <v>0.03604249211772133</v>
+        <v>-0.06934816491651589</v>
       </c>
       <c r="D47">
-        <v>-0.01226095969942538</v>
+        <v>-0.01041097998869734</v>
       </c>
       <c r="E47">
-        <v>-0.03459623401793145</v>
+        <v>0.00704493264051193</v>
       </c>
       <c r="F47">
-        <v>-0.005330818596581163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.00712456108422928</v>
+      </c>
+      <c r="G47">
+        <v>-0.007849934820834454</v>
+      </c>
+      <c r="H47">
+        <v>0.03578670176256986</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01955072242227401</v>
+        <v>0.01363525778561974</v>
       </c>
       <c r="C48">
-        <v>0.006586534571901041</v>
+        <v>-0.01731780867015612</v>
       </c>
       <c r="D48">
-        <v>-0.01268763822227779</v>
+        <v>-0.0003971577272295822</v>
       </c>
       <c r="E48">
-        <v>-0.01164392081376868</v>
+        <v>0.001387582974864072</v>
       </c>
       <c r="F48">
-        <v>-0.03118028946893668</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.006901471838146273</v>
+      </c>
+      <c r="G48">
+        <v>-0.008817576745902283</v>
+      </c>
+      <c r="H48">
+        <v>-0.01866046284387047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08629573740665568</v>
+        <v>0.05582406536700764</v>
       </c>
       <c r="C50">
-        <v>0.01129591219135756</v>
+        <v>-0.06515982053920059</v>
       </c>
       <c r="D50">
-        <v>-0.03131766483722782</v>
+        <v>-0.008462375928353891</v>
       </c>
       <c r="E50">
-        <v>-0.02450105504879815</v>
+        <v>0.02142449866639135</v>
       </c>
       <c r="F50">
-        <v>-0.01673877926875661</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02451084783416251</v>
+      </c>
+      <c r="G50">
+        <v>-0.001715150301973339</v>
+      </c>
+      <c r="H50">
+        <v>0.02135089166509776</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01711591140135861</v>
+        <v>0.01422184127248245</v>
       </c>
       <c r="C51">
-        <v>-0.003176953951076829</v>
+        <v>-0.01757806380809531</v>
       </c>
       <c r="D51">
-        <v>0.004737405637166558</v>
+        <v>0.004828805489871143</v>
       </c>
       <c r="E51">
-        <v>-0.003799552032806036</v>
+        <v>0.006719641749529231</v>
       </c>
       <c r="F51">
-        <v>-0.09413454535246045</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01313187174983234</v>
+      </c>
+      <c r="G51">
+        <v>-0.01647101307833556</v>
+      </c>
+      <c r="H51">
+        <v>-0.0503550484186849</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09181562281559606</v>
+        <v>0.07137817598291658</v>
       </c>
       <c r="C53">
-        <v>0.03654787917702302</v>
+        <v>-0.1062777240603132</v>
       </c>
       <c r="D53">
-        <v>-0.03917180411855643</v>
+        <v>-0.01155926483563902</v>
       </c>
       <c r="E53">
-        <v>-0.05174011817529359</v>
+        <v>0.02160381299502948</v>
       </c>
       <c r="F53">
-        <v>0.03177292232233208</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.0094430283729415</v>
+      </c>
+      <c r="G53">
+        <v>-0.002219794506643477</v>
+      </c>
+      <c r="H53">
+        <v>0.04102510860366077</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02747882535441467</v>
+        <v>0.02269045704762912</v>
       </c>
       <c r="C54">
-        <v>-0.002789174777099739</v>
+        <v>-0.002945313808054102</v>
       </c>
       <c r="D54">
-        <v>0.00626846637665853</v>
+        <v>-0.006804635433471468</v>
       </c>
       <c r="E54">
-        <v>-0.02480227194943796</v>
+        <v>-1.732799711957384e-05</v>
       </c>
       <c r="F54">
-        <v>-0.02917696554374071</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02558203687326044</v>
+      </c>
+      <c r="G54">
+        <v>-0.02265503707224337</v>
+      </c>
+      <c r="H54">
+        <v>-0.009537446650133379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08345682776523233</v>
+        <v>0.05259055121905817</v>
       </c>
       <c r="C55">
-        <v>0.03246950028236877</v>
+        <v>-0.09447875806205454</v>
       </c>
       <c r="D55">
-        <v>-0.04774629538535856</v>
+        <v>-0.009154533915654319</v>
       </c>
       <c r="E55">
-        <v>-0.03789233881439557</v>
+        <v>0.01081896527090275</v>
       </c>
       <c r="F55">
-        <v>0.03008829944858043</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.003847746033951439</v>
+      </c>
+      <c r="G55">
+        <v>-0.002865000927395183</v>
+      </c>
+      <c r="H55">
+        <v>0.0385856282671343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1282934077983753</v>
+        <v>0.09605079106622687</v>
       </c>
       <c r="C56">
-        <v>0.06145187662559677</v>
+        <v>-0.1349409666379014</v>
       </c>
       <c r="D56">
-        <v>-0.02040609013306829</v>
+        <v>-0.02076758178482198</v>
       </c>
       <c r="E56">
-        <v>-0.08263988798798967</v>
+        <v>0.03127218497787224</v>
       </c>
       <c r="F56">
-        <v>0.05767932167602582</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.02647624405056445</v>
+      </c>
+      <c r="G56">
+        <v>-0.00358844311570133</v>
+      </c>
+      <c r="H56">
+        <v>0.08770660956376836</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03682073800142791</v>
+        <v>0.02189175054456587</v>
       </c>
       <c r="C57">
-        <v>0.01718879950663603</v>
+        <v>-0.02944370604273138</v>
       </c>
       <c r="D57">
-        <v>-0.02595965000733253</v>
+        <v>0.02207195375013083</v>
       </c>
       <c r="E57">
-        <v>0.0345804793461852</v>
+        <v>-0.02235921720400832</v>
       </c>
       <c r="F57">
-        <v>-0.05604579016859362</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.0366933906909874</v>
+      </c>
+      <c r="G57">
+        <v>-0.02104125291039285</v>
+      </c>
+      <c r="H57">
+        <v>-0.06797757003517359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1659755625773376</v>
+        <v>0.07318330295050143</v>
       </c>
       <c r="C58">
-        <v>0.2001479154132826</v>
+        <v>-0.1742758292491682</v>
       </c>
       <c r="D58">
-        <v>-0.2055283770096117</v>
+        <v>0.003283985369912767</v>
       </c>
       <c r="E58">
-        <v>-0.02708075331871119</v>
+        <v>-0.6817915751899312</v>
       </c>
       <c r="F58">
-        <v>-0.5922085519381434</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.541124327643025</v>
+      </c>
+      <c r="G58">
+        <v>-0.3810478001053412</v>
+      </c>
+      <c r="H58">
+        <v>0.05569371486452893</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07291721152943652</v>
+        <v>0.2093358645448361</v>
       </c>
       <c r="C59">
-        <v>0.03923708574009657</v>
+        <v>0.1648051552382849</v>
       </c>
       <c r="D59">
-        <v>0.1788698893913322</v>
+        <v>-0.02795973734987045</v>
       </c>
       <c r="E59">
-        <v>0.05798614479606155</v>
+        <v>-0.01400274629180224</v>
       </c>
       <c r="F59">
-        <v>-0.07710113047620874</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.0117560467102846</v>
+      </c>
+      <c r="G59">
+        <v>-0.00748316099751296</v>
+      </c>
+      <c r="H59">
+        <v>-0.01858255440185011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1416621274818493</v>
+        <v>0.2281097723305917</v>
       </c>
       <c r="C60">
-        <v>0.09838260768779163</v>
+        <v>-0.08927784655492405</v>
       </c>
       <c r="D60">
-        <v>4.880357590624006e-05</v>
+        <v>-0.01240562269864344</v>
       </c>
       <c r="E60">
-        <v>0.01937718441858913</v>
+        <v>0.02774326920754859</v>
       </c>
       <c r="F60">
-        <v>-0.1622874035817176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1590445967306966</v>
+      </c>
+      <c r="G60">
+        <v>-0.05587824616007211</v>
+      </c>
+      <c r="H60">
+        <v>-0.3904443932551188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02108203279283152</v>
+        <v>0.01165382657476507</v>
       </c>
       <c r="C61">
-        <v>0.008618253375271546</v>
+        <v>-0.0644535780548232</v>
       </c>
       <c r="D61">
-        <v>-0.04097138168194737</v>
+        <v>0.001734094781854982</v>
       </c>
       <c r="E61">
-        <v>-0.01281401191169855</v>
+        <v>0.008144393506042444</v>
       </c>
       <c r="F61">
-        <v>-0.01998093032712745</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.006511439637752015</v>
+      </c>
+      <c r="G61">
+        <v>-0.02112294798561306</v>
+      </c>
+      <c r="H61">
+        <v>-0.05775142925209222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01744906414834905</v>
+        <v>0.006794129828468528</v>
       </c>
       <c r="C63">
-        <v>0.002765653997984914</v>
+        <v>-0.02403009395088457</v>
       </c>
       <c r="D63">
-        <v>-0.01839473125125486</v>
+        <v>0.006251122393877178</v>
       </c>
       <c r="E63">
-        <v>-0.007331074300264511</v>
+        <v>0.01044113756302736</v>
       </c>
       <c r="F63">
-        <v>-0.005555019635828396</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.006083566743785662</v>
+      </c>
+      <c r="G63">
+        <v>-0.009861859009375251</v>
+      </c>
+      <c r="H63">
+        <v>-0.01501559842376099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0416403740087553</v>
+        <v>0.03433681499477197</v>
       </c>
       <c r="C64">
-        <v>0.002630064914264622</v>
+        <v>-0.04583564797978936</v>
       </c>
       <c r="D64">
-        <v>-0.02791114809019075</v>
+        <v>0.0005284239384853081</v>
       </c>
       <c r="E64">
-        <v>-0.02396045126464327</v>
+        <v>0.02284044293040589</v>
       </c>
       <c r="F64">
-        <v>-0.01321507011100994</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.00739634844660559</v>
+      </c>
+      <c r="G64">
+        <v>0.009257965843541861</v>
+      </c>
+      <c r="H64">
+        <v>-0.0351340335923596</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04017964661992811</v>
+        <v>0.04185524277232484</v>
       </c>
       <c r="C65">
-        <v>0.01193762679329254</v>
+        <v>-0.08426411481273327</v>
       </c>
       <c r="D65">
-        <v>-0.0396722351451497</v>
+        <v>0.01100339281554367</v>
       </c>
       <c r="E65">
-        <v>-0.03548607477180136</v>
+        <v>0.02520699292017987</v>
       </c>
       <c r="F65">
-        <v>-0.0142952070321194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03260363654403407</v>
+      </c>
+      <c r="G65">
+        <v>-0.03069279306894547</v>
+      </c>
+      <c r="H65">
+        <v>-0.06423755386301681</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0351442262271572</v>
+        <v>0.01103543747322167</v>
       </c>
       <c r="C66">
-        <v>0.02591336434182869</v>
+        <v>-0.1183463301157229</v>
       </c>
       <c r="D66">
-        <v>-0.06191678017815595</v>
+        <v>0.006043686007446588</v>
       </c>
       <c r="E66">
-        <v>-0.0548200766086227</v>
+        <v>0.005055300573134999</v>
       </c>
       <c r="F66">
-        <v>-0.03094047968302855</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.02662919733209865</v>
+      </c>
+      <c r="G66">
+        <v>-0.04161105237154771</v>
+      </c>
+      <c r="H66">
+        <v>-0.08283591319032386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02321487902159709</v>
+        <v>0.04959217565678987</v>
       </c>
       <c r="C67">
-        <v>0.01324853505525975</v>
+        <v>-0.02987851551673978</v>
       </c>
       <c r="D67">
-        <v>0.008703329111658725</v>
+        <v>-0.0115069361098326</v>
       </c>
       <c r="E67">
-        <v>0.0162470836480765</v>
+        <v>0.006809677670254749</v>
       </c>
       <c r="F67">
-        <v>-0.02856160019676113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.009042848120975914</v>
+      </c>
+      <c r="G67">
+        <v>-0.01562166213972493</v>
+      </c>
+      <c r="H67">
+        <v>-0.0346098823040521</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08320714648735358</v>
+        <v>0.2099689666934539</v>
       </c>
       <c r="C68">
-        <v>0.03081379197551783</v>
+        <v>0.2042949366678241</v>
       </c>
       <c r="D68">
-        <v>0.2027341318714554</v>
+        <v>-0.009048455071416177</v>
       </c>
       <c r="E68">
-        <v>0.0717166749348247</v>
+        <v>-0.03088486471527314</v>
       </c>
       <c r="F68">
-        <v>-0.06877392682151992</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.0512014911472867</v>
+      </c>
+      <c r="G68">
+        <v>0.01792534964535679</v>
+      </c>
+      <c r="H68">
+        <v>0.02874379482724981</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06394250275696643</v>
+        <v>0.05501234478525845</v>
       </c>
       <c r="C69">
-        <v>0.02982278559571289</v>
+        <v>-0.06434558848176979</v>
       </c>
       <c r="D69">
-        <v>-0.01349370123240256</v>
+        <v>-0.01473292573718304</v>
       </c>
       <c r="E69">
-        <v>-0.03718707799714914</v>
+        <v>0.02074629524260682</v>
       </c>
       <c r="F69">
-        <v>-0.002842913069663452</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.01358078508512582</v>
+      </c>
+      <c r="G69">
+        <v>-0.01109892230512272</v>
+      </c>
+      <c r="H69">
+        <v>0.007687884963136857</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08565481009988218</v>
+        <v>0.184959328264924</v>
       </c>
       <c r="C71">
-        <v>0.03670271119850596</v>
+        <v>0.1597475853574663</v>
       </c>
       <c r="D71">
-        <v>0.1993933869873853</v>
+        <v>-0.01395708060308569</v>
       </c>
       <c r="E71">
-        <v>0.1146139689580287</v>
+        <v>-0.03258067748342393</v>
       </c>
       <c r="F71">
-        <v>-0.07435380565150211</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.05063842230636417</v>
+      </c>
+      <c r="G71">
+        <v>0.02705652142081539</v>
+      </c>
+      <c r="H71">
+        <v>0.004591753711190104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.104417676336399</v>
+        <v>0.05386134528087264</v>
       </c>
       <c r="C72">
-        <v>0.05945180604185322</v>
+        <v>-0.1105271681045821</v>
       </c>
       <c r="D72">
-        <v>-0.08008067805844726</v>
+        <v>-0.01522950436413994</v>
       </c>
       <c r="E72">
-        <v>-0.08928517272531863</v>
+        <v>0.007389525958986752</v>
       </c>
       <c r="F72">
-        <v>-0.08780402793238064</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.0340862372046748</v>
+      </c>
+      <c r="G72">
+        <v>-0.05788886057167233</v>
+      </c>
+      <c r="H72">
+        <v>-0.08832899789102658</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1701010049908743</v>
+        <v>0.290573415064495</v>
       </c>
       <c r="C73">
-        <v>0.1665855833991743</v>
+        <v>-0.1524602543635685</v>
       </c>
       <c r="D73">
-        <v>-0.01771022334623888</v>
+        <v>-0.01081329145517105</v>
       </c>
       <c r="E73">
-        <v>0.04424721141332606</v>
+        <v>-0.01533716960789205</v>
       </c>
       <c r="F73">
-        <v>-0.1858577395485826</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1951359749878198</v>
+      </c>
+      <c r="G73">
+        <v>-0.05948693512206358</v>
+      </c>
+      <c r="H73">
+        <v>-0.4493578466941656</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1184086148838669</v>
+        <v>0.09618909059864926</v>
       </c>
       <c r="C74">
-        <v>0.05569599036882878</v>
+        <v>-0.13859177236806</v>
       </c>
       <c r="D74">
-        <v>-0.0313321106073701</v>
+        <v>-0.02091432640230987</v>
       </c>
       <c r="E74">
-        <v>-0.05538923149512276</v>
+        <v>0.02950371890299471</v>
       </c>
       <c r="F74">
-        <v>0.07086858738460192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.01935549040630745</v>
+      </c>
+      <c r="G74">
+        <v>-0.004567377844016844</v>
+      </c>
+      <c r="H74">
+        <v>0.05434406576954216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.20925609326364</v>
+        <v>0.1983895670902819</v>
       </c>
       <c r="C75">
-        <v>0.1177031113663099</v>
+        <v>-0.233112927063514</v>
       </c>
       <c r="D75">
-        <v>-0.02953481165382685</v>
+        <v>-0.04431660180823182</v>
       </c>
       <c r="E75">
-        <v>-0.1648283593154432</v>
+        <v>0.04219769330894189</v>
       </c>
       <c r="F75">
-        <v>0.1130793364661396</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.05950114688036922</v>
+      </c>
+      <c r="G75">
+        <v>-0.02887058008668233</v>
+      </c>
+      <c r="H75">
+        <v>0.1851196788884877</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2581076533872777</v>
+        <v>0.1457245568342142</v>
       </c>
       <c r="C76">
-        <v>0.09883450835832798</v>
+        <v>-0.2020121317027209</v>
       </c>
       <c r="D76">
-        <v>-0.03025748890946455</v>
+        <v>-0.03784060903826676</v>
       </c>
       <c r="E76">
-        <v>-0.1875928613264055</v>
+        <v>0.07757847519780632</v>
       </c>
       <c r="F76">
-        <v>0.2182807267829976</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.0312947106814438</v>
+      </c>
+      <c r="G76">
+        <v>-0.007749059247301348</v>
+      </c>
+      <c r="H76">
+        <v>0.1606248507014142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.09500902564841775</v>
+        <v>0.04575427878103627</v>
       </c>
       <c r="C77">
-        <v>0.05701432831045469</v>
+        <v>-0.08746924823758427</v>
       </c>
       <c r="D77">
-        <v>-0.07787357956926341</v>
+        <v>0.008351281760040406</v>
       </c>
       <c r="E77">
-        <v>0.02972291397089908</v>
+        <v>-0.02802538577556783</v>
       </c>
       <c r="F77">
-        <v>-0.0917680258456389</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.03748644522835769</v>
+      </c>
+      <c r="G77">
+        <v>-0.00423648182183327</v>
+      </c>
+      <c r="H77">
+        <v>-0.02256731047748464</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05462940890161633</v>
+        <v>0.02049113864815314</v>
       </c>
       <c r="C78">
-        <v>0.01232180924602651</v>
+        <v>-0.07584688950488758</v>
       </c>
       <c r="D78">
-        <v>-0.09679368253223634</v>
+        <v>0.003358159849943193</v>
       </c>
       <c r="E78">
-        <v>-0.04039637762130419</v>
+        <v>0.002226591999988147</v>
       </c>
       <c r="F78">
-        <v>-0.07248441091499218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01409773379614727</v>
+      </c>
+      <c r="G78">
+        <v>-0.03141443224651153</v>
+      </c>
+      <c r="H78">
+        <v>-0.08754174605482243</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.5161905160999615</v>
+        <v>0.09835745936306178</v>
       </c>
       <c r="C80">
-        <v>-0.8330631228258382</v>
+        <v>-0.1141094790505226</v>
       </c>
       <c r="D80">
-        <v>-0.0568884416828934</v>
+        <v>-0.003630973647009075</v>
       </c>
       <c r="E80">
-        <v>0.067938099962184</v>
+        <v>0.6073812011853277</v>
       </c>
       <c r="F80">
-        <v>-0.05106175507157234</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.7349091031912917</v>
+      </c>
+      <c r="G80">
+        <v>0.08396962461211591</v>
+      </c>
+      <c r="H80">
+        <v>-0.112889954859995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1729772617819935</v>
+        <v>0.1258440621532015</v>
       </c>
       <c r="C81">
-        <v>0.0791621130479947</v>
+        <v>-0.1488919674607631</v>
       </c>
       <c r="D81">
-        <v>-0.008612764315279693</v>
+        <v>-0.02721034963952854</v>
       </c>
       <c r="E81">
-        <v>-0.1263893571780577</v>
+        <v>0.04146348956393156</v>
       </c>
       <c r="F81">
-        <v>0.09123381737802247</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.02199201567701324</v>
+      </c>
+      <c r="G81">
+        <v>-0.01143019570068678</v>
+      </c>
+      <c r="H81">
+        <v>0.113634317300541</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.002355737524243515</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.001619155554223169</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.0003885399274831285</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.001229789129743043</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.002190813575715619</v>
+      </c>
+      <c r="G82">
+        <v>-0.0004862090816711642</v>
+      </c>
+      <c r="H82">
+        <v>-0.002753774342150989</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03247118639572879</v>
+        <v>0.0198697524914178</v>
       </c>
       <c r="C83">
-        <v>0.02067032165951151</v>
+        <v>-0.02253168486559054</v>
       </c>
       <c r="D83">
-        <v>-0.02457859332022842</v>
+        <v>0.003048660517737288</v>
       </c>
       <c r="E83">
-        <v>0.01646772746294967</v>
+        <v>-0.01488691145546119</v>
       </c>
       <c r="F83">
-        <v>-0.04933121324539447</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01999765413465061</v>
+      </c>
+      <c r="G83">
+        <v>-0.01195623664902483</v>
+      </c>
+      <c r="H83">
+        <v>-0.04100171456574072</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2304715796131287</v>
+        <v>0.177773187142012</v>
       </c>
       <c r="C85">
-        <v>0.119234685178368</v>
+        <v>-0.2205672269849223</v>
       </c>
       <c r="D85">
-        <v>-0.02859771766128619</v>
+        <v>-0.02909722138781756</v>
       </c>
       <c r="E85">
-        <v>-0.1661239586152127</v>
+        <v>0.05514262404799417</v>
       </c>
       <c r="F85">
-        <v>0.1576836111835141</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.08541853211801047</v>
+      </c>
+      <c r="G85">
+        <v>0.004430313770185781</v>
+      </c>
+      <c r="H85">
+        <v>0.1343242105072522</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.00634635344336804</v>
+        <v>0.009532080671831767</v>
       </c>
       <c r="C86">
-        <v>-0.002145750416465395</v>
+        <v>-0.03447814054390194</v>
       </c>
       <c r="D86">
-        <v>-0.05771726465328974</v>
+        <v>0.006866057842639581</v>
       </c>
       <c r="E86">
-        <v>-0.002928006824170639</v>
+        <v>-0.004479418849900718</v>
       </c>
       <c r="F86">
-        <v>-0.04911745812256785</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.01983240222513912</v>
+      </c>
+      <c r="G86">
+        <v>0.001849347383359852</v>
+      </c>
+      <c r="H86">
+        <v>-0.07630486849178647</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02772577185738964</v>
+        <v>0.00300337053401908</v>
       </c>
       <c r="C87">
-        <v>0.009119982726452428</v>
+        <v>-0.03825752525519562</v>
       </c>
       <c r="D87">
-        <v>-0.04058590544038131</v>
+        <v>0.008437312123077171</v>
       </c>
       <c r="E87">
-        <v>-0.01215733707861445</v>
+        <v>-0.01962470224943113</v>
       </c>
       <c r="F87">
-        <v>-0.08925929658704972</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.03536002898283103</v>
+      </c>
+      <c r="G87">
+        <v>-0.03232080366675763</v>
+      </c>
+      <c r="H87">
+        <v>-0.08612251764483579</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.02430890824896828</v>
+        <v>0.04532658773102457</v>
       </c>
       <c r="C88">
-        <v>-0.002232605485456357</v>
+        <v>-0.01854718424245201</v>
       </c>
       <c r="D88">
-        <v>0.004263059769071033</v>
+        <v>0.01642987121163153</v>
       </c>
       <c r="E88">
-        <v>-0.008305212681782253</v>
+        <v>0.0248792292131518</v>
       </c>
       <c r="F88">
-        <v>0.02693561926339925</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.001504397431245053</v>
+      </c>
+      <c r="G88">
+        <v>-0.005964524109851553</v>
+      </c>
+      <c r="H88">
+        <v>0.003055163877107481</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1292389276575878</v>
+        <v>0.325082790822452</v>
       </c>
       <c r="C89">
-        <v>0.08030938897968026</v>
+        <v>0.2876324494324543</v>
       </c>
       <c r="D89">
-        <v>0.3502862587720951</v>
+        <v>-0.02428768872708388</v>
       </c>
       <c r="E89">
-        <v>0.08975812881433932</v>
+        <v>-0.01766126239877976</v>
       </c>
       <c r="F89">
-        <v>-0.09893882232990096</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.001008303995628978</v>
+      </c>
+      <c r="G89">
+        <v>0.02072385204304564</v>
+      </c>
+      <c r="H89">
+        <v>0.01921446242098113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.101716347482144</v>
+        <v>0.2710129215819868</v>
       </c>
       <c r="C90">
-        <v>0.03256466476685017</v>
+        <v>0.26421458193333</v>
       </c>
       <c r="D90">
-        <v>0.3368759269458519</v>
+        <v>-0.02302922762371766</v>
       </c>
       <c r="E90">
-        <v>0.1141635265234393</v>
+        <v>-0.02228335694208571</v>
       </c>
       <c r="F90">
-        <v>-0.02987202117842624</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.04241474789052101</v>
+      </c>
+      <c r="G90">
+        <v>0.03419661039854596</v>
+      </c>
+      <c r="H90">
+        <v>0.05561529043395191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2605285076411589</v>
+        <v>0.188934028282116</v>
       </c>
       <c r="C91">
-        <v>0.1533515468658729</v>
+        <v>-0.2099956106141304</v>
       </c>
       <c r="D91">
-        <v>-0.04637014683258422</v>
+        <v>-0.0415075801562662</v>
       </c>
       <c r="E91">
-        <v>-0.1487236795111062</v>
+        <v>0.04155506310524099</v>
       </c>
       <c r="F91">
-        <v>0.2334240329986419</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.06605330305177994</v>
+      </c>
+      <c r="G91">
+        <v>0.004026220254663727</v>
+      </c>
+      <c r="H91">
+        <v>0.1974806601305222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.173908645283059</v>
+        <v>0.2775937762789359</v>
       </c>
       <c r="C92">
-        <v>0.07908242512667112</v>
+        <v>0.177515937212169</v>
       </c>
       <c r="D92">
-        <v>0.4125597947270789</v>
+        <v>-0.06488344528724008</v>
       </c>
       <c r="E92">
-        <v>0.04755584692715015</v>
+        <v>-0.02607668801641226</v>
       </c>
       <c r="F92">
-        <v>0.1255166955392061</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.06872885672351753</v>
+      </c>
+      <c r="G92">
+        <v>-0.0008954947437576284</v>
+      </c>
+      <c r="H92">
+        <v>0.1479095459490787</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1086948549801104</v>
+        <v>0.3040847758558112</v>
       </c>
       <c r="C93">
-        <v>0.08364362958772877</v>
+        <v>0.2582114621049983</v>
       </c>
       <c r="D93">
-        <v>0.3835924022413532</v>
+        <v>-0.0323202776840729</v>
       </c>
       <c r="E93">
-        <v>0.1697700977707451</v>
+        <v>-0.04417575148288538</v>
       </c>
       <c r="F93">
-        <v>-0.04688625500213519</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.005851299330579146</v>
+      </c>
+      <c r="G93">
+        <v>0.04113120784207782</v>
+      </c>
+      <c r="H93">
+        <v>-0.008994142077046486</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.274013433609403</v>
+        <v>0.2320288729292464</v>
       </c>
       <c r="C94">
-        <v>0.1787665839015871</v>
+        <v>-0.2377804207871567</v>
       </c>
       <c r="D94">
-        <v>-0.0003726532941183534</v>
+        <v>-0.03165831595118065</v>
       </c>
       <c r="E94">
-        <v>-0.2479047548741593</v>
+        <v>0.05763959531823235</v>
       </c>
       <c r="F94">
-        <v>0.1449297772030803</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.136739072425978</v>
+      </c>
+      <c r="G94">
+        <v>-0.06281960215330146</v>
+      </c>
+      <c r="H94">
+        <v>0.445868582197538</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.02602917313433421</v>
+        <v>0.03319488120442718</v>
       </c>
       <c r="C95">
-        <v>0.1005721369355072</v>
+        <v>-0.1063589270831341</v>
       </c>
       <c r="D95">
-        <v>-0.03220628632112359</v>
+        <v>-0.01090670012605838</v>
       </c>
       <c r="E95">
-        <v>-0.03548086961220645</v>
+        <v>-0.08557558432189906</v>
       </c>
       <c r="F95">
-        <v>-0.03253689006808728</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.03963545899702978</v>
+      </c>
+      <c r="G95">
+        <v>-0.0211404430427723</v>
+      </c>
+      <c r="H95">
+        <v>-0.06656036999708546</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1407971432594101</v>
+        <v>0.1861106386886722</v>
       </c>
       <c r="C98">
-        <v>0.1072646852949283</v>
+        <v>-0.07221681951475102</v>
       </c>
       <c r="D98">
-        <v>0.01095064198081596</v>
+        <v>-0.03364826692263849</v>
       </c>
       <c r="E98">
-        <v>0.0770662133137484</v>
+        <v>-0.03763187729852218</v>
       </c>
       <c r="F98">
-        <v>-0.1674442679540531</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.06717709309774245</v>
+      </c>
+      <c r="G98">
+        <v>-0.01803314244720656</v>
+      </c>
+      <c r="H98">
+        <v>-0.3357492351375238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01339306061646188</v>
+        <v>0.00590873397635846</v>
       </c>
       <c r="C101">
-        <v>-0.00135961342672746</v>
+        <v>-0.02007189142510395</v>
       </c>
       <c r="D101">
-        <v>-0.03960587036148804</v>
+        <v>0.005806649609036737</v>
       </c>
       <c r="E101">
-        <v>-0.03127589899365102</v>
+        <v>-0.02552120728006538</v>
       </c>
       <c r="F101">
-        <v>-0.1800470299445436</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.05111116331725245</v>
+      </c>
+      <c r="G101">
+        <v>-0.05292728033969339</v>
+      </c>
+      <c r="H101">
+        <v>-0.0167301251745784</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1129339607012053</v>
+        <v>0.09452385217620779</v>
       </c>
       <c r="C102">
-        <v>0.05821993293046303</v>
+        <v>-0.1100699574442336</v>
       </c>
       <c r="D102">
-        <v>-0.01419430220013757</v>
+        <v>-0.008300141738489806</v>
       </c>
       <c r="E102">
-        <v>-0.08565134695377168</v>
+        <v>0.03283541614363851</v>
       </c>
       <c r="F102">
-        <v>0.08879418318732182</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.04608879037849111</v>
+      </c>
+      <c r="G102">
+        <v>-0.005898467832891972</v>
+      </c>
+      <c r="H102">
+        <v>0.07129489448797556</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04869731045370731</v>
+        <v>0.0122889739155939</v>
       </c>
       <c r="C103">
-        <v>0.008778739629666823</v>
+        <v>-0.01863657850833284</v>
       </c>
       <c r="D103">
-        <v>-0.0171744933226022</v>
+        <v>-0.001445468464875813</v>
       </c>
       <c r="E103">
-        <v>-0.04068038137143865</v>
+        <v>0.008223533200860701</v>
       </c>
       <c r="F103">
-        <v>0.0127662648138048</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01352318330511887</v>
+      </c>
+      <c r="G103">
+        <v>-0.003099873117407728</v>
+      </c>
+      <c r="H103">
+        <v>0.01578900487273295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1066114359273913</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.024512007860981</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9799349509952316</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.05353360027528671</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.03183406723162353</v>
+      </c>
+      <c r="G104">
+        <v>-0.1053431960482297</v>
+      </c>
+      <c r="H104">
+        <v>0.05833939491546014</v>
       </c>
     </row>
   </sheetData>
